--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -194,7 +194,22 @@
     <t xml:space="preserve">13.08.2025  ср</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет  платы для работы </t>
+    <t xml:space="preserve">Нет  платы для работы  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плата 1 – не работает после переделки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плата 2 – изначально глючила</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плата 3 – заменили STM32G031 – опять не прошивается (возможно из за кварца)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.08.2025  чт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.08.2025  пт</t>
   </si>
 </sst>
 </file>
@@ -293,7 +308,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +334,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,13 +358,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="86"/>
@@ -659,6 +678,80 @@
       <c r="B51" s="5" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7"/>
+      <c r="B52" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7"/>
+      <c r="B53" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7"/>
+      <c r="B54" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7"/>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7"/>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7"/>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7"/>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7"/>
+      <c r="B67" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t xml:space="preserve">Плата 3 – заменили STM32G031 – опять не прошивается (возможно из за кварца)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбило 2 TVS диода  из за этого не прошивался STM32</t>
   </si>
   <si>
     <t xml:space="preserve">14.08.2025  чт</t>
@@ -358,10 +361,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -699,20 +702,22 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
-      <c r="B55" s="5"/>
+      <c r="B55" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
       <c r="B56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A57" s="7"/>
       <c r="B57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7"/>
+      <c r="A58" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="B58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,13 +729,13 @@
       <c r="B60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
+      <c r="A62" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="B62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,6 +757,10 @@
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7"/>
       <c r="B67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7"/>
+      <c r="B68" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -209,7 +209,13 @@
     <t xml:space="preserve">Выбило 2 TVS диода  из за этого не прошивался STM32</t>
   </si>
   <si>
+    <t xml:space="preserve">STM32G031 (с большей памятью) запущен   оба  ключа работают некорректные измерения U  I  T</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.08.2025  чт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет чтения и записи MT42790 (3 плата)  -  звново проверяю всю времянку</t>
   </si>
   <si>
     <t xml:space="preserve">15.08.2025  пт</t>
@@ -364,13 +370,13 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,7 +714,9 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
-      <c r="B56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7"/>
@@ -716,9 +724,11 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
@@ -734,7 +744,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="5"/>
     </row>

--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -218,6 +218,9 @@
     <t xml:space="preserve">Нет чтения и записи MT42790 (3 плата)  -  звново проверяю всю времянку</t>
   </si>
   <si>
+    <t xml:space="preserve">Начал проект STM32G431СBT6  Узел заряда</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.08.2025  пт</t>
   </si>
 </sst>
@@ -229,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;mmmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,6 +270,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -317,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,6 +356,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,8 +382,8 @@
   </sheetPr>
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -732,7 +745,9 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
-      <c r="B59" s="5"/>
+      <c r="B59" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
@@ -744,7 +759,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5"/>
     </row>

--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -215,10 +215,13 @@
     <t xml:space="preserve">14.08.2025  чт</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет чтения и записи MT42790 (3 плата)  -  звново проверяю всю времянку</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Начал проект STM32G431СBT6  Узел заряда</t>
+    <t xml:space="preserve">Нет чтения и записи MT42790 (3 плата)  -  заново проверяю всю времянку (пока на паузу)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начал проект STM32G431СBT6  Узел заряда   STM32G431CB  инициализирован прошивается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Управление GPIO сделано</t>
   </si>
   <si>
     <t xml:space="preserve">15.08.2025  пт</t>
@@ -232,7 +235,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;mmmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -270,12 +273,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,10 +353,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,8 +375,8 @@
   </sheetPr>
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,13 +738,15 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7"/>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
-      <c r="B60" s="5"/>
+      <c r="B60" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
@@ -759,7 +754,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5"/>
     </row>

--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -221,10 +221,13 @@
     <t xml:space="preserve">Начал проект STM32G431СBT6  Узел заряда   STM32G431CB  инициализирован прошивается</t>
   </si>
   <si>
-    <t xml:space="preserve">Управление GPIO сделано</t>
+    <t xml:space="preserve">Управление GPIO сделано  EEPROM работает  USART 2 3  не работает   начинаю MP2650</t>
   </si>
   <si>
     <t xml:space="preserve">15.08.2025  пт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP2650 доступ через I2c  начало</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;mmmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -273,6 +276,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,7 +332,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -353,6 +362,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,7 +389,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -756,7 +769,9 @@
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>

--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -229,6 +229,21 @@
   <si>
     <t xml:space="preserve">MP2650 доступ через I2c  начало</t>
   </si>
+  <si>
+    <t xml:space="preserve">Доступ к регистрам получен  написаны необходимые функции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.08.2025  пн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP2650 не выдает напряжение на выход  -  перепробованы все варианты  конфига</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нужно подключать батарею</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет  платы для работы   (с 12 часов)</t>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +253,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;mmmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -276,12 +291,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,7 +341,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -365,10 +374,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +394,7 @@
   <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+      <selection pane="topLeft" activeCell="D66" activeCellId="0" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,29 +774,39 @@
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7"/>
       <c r="B64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7"/>
-      <c r="B66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7"/>
-      <c r="B67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>

--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -244,6 +244,15 @@
   <si>
     <t xml:space="preserve">Нет  платы для работы   (с 12 часов)</t>
   </si>
+  <si>
+    <t xml:space="preserve">19.08.2025  вт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет  платы для работы  (нет разьема для подключения АБ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.08.2025  ср</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +262,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;mmmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +300,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,6 +386,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -391,10 +414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D66" activeCellId="0" sqref="D66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -811,6 +834,66 @@
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>
       <c r="B68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7"/>
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7"/>
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7"/>
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7"/>
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7"/>
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7"/>
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7"/>
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7"/>
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7"/>
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7"/>
+      <c r="B81" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -253,6 +253,9 @@
   <si>
     <t xml:space="preserve">20.08.2025  ср</t>
   </si>
+  <si>
+    <t xml:space="preserve">Нет  платы для работы Не работает UART – ошибка в схеме  сделана доработка – ошибка в доработке</t>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +265,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;mmmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -299,12 +302,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,7 +353,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,10 +386,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,13 +410,13 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,61 +832,61 @@
       <c r="A69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7"/>
-      <c r="B70" s="9"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>51</v>
+      <c r="B71" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7"/>
-      <c r="B72" s="9"/>
+      <c r="B72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7"/>
-      <c r="B73" s="9"/>
+      <c r="B73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7"/>
-      <c r="B74" s="9"/>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7"/>
-      <c r="B75" s="9"/>
+      <c r="B75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7"/>
-      <c r="B76" s="9"/>
+      <c r="B76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7"/>
-      <c r="B77" s="9"/>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7"/>
-      <c r="B78" s="9"/>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7"/>
-      <c r="B79" s="9"/>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7"/>
-      <c r="B80" s="9"/>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7"/>
-      <c r="B81" s="9"/>
+      <c r="B81" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/STM32_NEW_PROJECTS/STM32_график.xlsx
+++ b/STM32_NEW_PROJECTS/STM32_график.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t xml:space="preserve">Дата</t>
   </si>
@@ -254,7 +254,13 @@
     <t xml:space="preserve">20.08.2025  ср</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет  платы для работы Не работает UART – ошибка в схеме  сделана доработка – ошибка в доработке</t>
+    <t xml:space="preserve">Нет  платы для работы Не работает UART – ошибка в схеме  сделана доработка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нашел ошибку в сделанной доработке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.08.2025  чт</t>
   </si>
 </sst>
 </file>
@@ -265,7 +271,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;mmmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -303,6 +309,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -353,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,6 +399,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -410,7 +426,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -850,15 +866,21 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
+      <c r="B72" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7"/>
